--- a/data/examples/dataset_entrenamiento_ml_vf.xlsx
+++ b/data/examples/dataset_entrenamiento_ml_vf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ceplan\03. Orden de Servicio\07. Entregable 07\Evaluador_Informes\data\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69AB7A2-D943-4C70-AED8-1856B6FDA637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58DA618-C3D3-4BE4-8385-E92A5384D069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F00190AA-7F86-40B3-A9F2-D52551F6B6B8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="321">
   <si>
     <t>document_id</t>
   </si>
@@ -1321,9 +1321,6 @@
   </si>
   <si>
     <t>Con relación a los valores reportados por los Objetivos Estratégicos Institucionales, se realizan las siguientes recomendaciones: ✓ Actualizar el Plan Estratégico Institucional (PEI) del Ministerio del Interior en el marco del nuevo Plan Estratégico Sectorial Multianual (PESEM) del Sector Interior al año 2030, priorizando la actualización de los OEI y AEI con sus respectivos indicadores; con logros esperados acorde a la capacidad técnica y operativa de las Unidades Ejecutoras del Pliego.  ✓ Con relación al Objetivo Estratégico Institucional OEI.01 dirigido a “Reducir la inseguridad ciudadana a favor de la población en el ámbito nacional”, deben actualizarse sus AEI, considerando los servicios de la Política Nacional Multisectorial de Seguridad Ciudadana al 2030, de responsabilidad del Ministerio del Interior y la Policía Nacional del Perú; de tal manera que se incrementen las acciones preventivas, se mejore el acceso de la población a los servicios de seguridad ciudadana, se reduzcan la incidencia de delitos violentos, entre otras aspectos; y se logren los resultados esperados. ✓ En lo correspondiente al Objetivo Estratégico Institucional OEI.02 cuyo fin es “Promover la gestión del riesgo de desastres”, debe continuarse con los programas de capacitación y sensibilización a los efectivos policiales nivel nacional, de tal forma que se fortalezcan permanentemente las capacidades de respuesta de la PNP ante las emergencias y desastres naturales y antrópicos registrados a nivel nacional, para protección de la vida y patrimonio de la población. Asimismo, debe reevaluarse los responsables de la medición de los indicadores de la AEI vinculadas al OEI. ✓ Respecto del Objetivo Estratégico Institucional OEI.03 “Reducir los delitos de trata de personas y tráfico ilícito de migrantes en las poblaciones vulnerables”, debe deben actualizarse sus AEI, considerando los servicios de la Política Nacional Multisectorial frente a la Trata de Personas y sus formas de explotación al 2030, de responsabilidad del Ministerio del Interior y la Policía Nacional del Perú; de tal manera que se incrementen las intervenciones preventivas, se mejore el sistema de persecución, sanción penal y fiscalización para combatir el delito de trata; y se mejore la atención y reintegración de víctimas por el delito de trata de personas y tráfico de migrantes. ✓ Respecto al Objetivo Estratégico Institucional OEI.04 dirigido a “Reducir la criminalidad organizada a nivel nacional en beneficio de la población”, debe fortalecerse el trabajo conjunto con la Fiscalía de la Nación, Ministerio Publico y Policía Nacional. Asimismo, debe deben actualizarse sus AEI, considerando los servicios de la Política Nacional Multisectorial contra el Crimen Organizado 20192030, de responsabilidad del Ministerio del Interior y la Policía Nacional del Perú; de tal manera que se fortalezca la capacidad del Estado en su lucha contra las organizaciones criminales; el control efectivo de la oferta en mercados ilegales; así como las acciones de prevención en materia de crimen organizado. ✓ Con relación al Objetivo Estratégico Institucional OEI.05 “Reducir el terrorismo en todas sus modalidades en el ámbito nacional”, deben intensificarse los trabajos de inteligencia y operativos conjuntos entre la Policial Nacional y las Fuerzas Armadas, de tal forma que se acerté daños a la estructura de las organizaciones terroristas. Asimismo, debe fortalecerse constantemente las capacidades y competencias del personal antiterrorista, con la finalidad de lograr el resultado propuesto. ✓ Respecto del Objetivo Estratégico Institucional OEI.06 dirigido a “Reducir el tráfico ilícito de drogas y delitos conexos en beneficio de la población”, debe continuarse con el fortalecimiento del Sistema Nacional de Información Contra el Tráfico Ilícito de Drogas (SINICTID), proseguir con la capacitación del personal policial pertenecientes al Sistema Policial Antidrogas a nivel nacional; y mejorar la gestión por procesos y la implementación del presupuesto por resultados en la entidad; de tal manera que se optimicen los recursos y se consigan los resultados esperados. ✓ Respecto al Objetivo Estratégico Institucional OEI.07 “Disminuir la incidencia de actos violentos en conflictos, protestas y movilizaciones sociales a nivel nacional en salvaguarda de la población”, deben reforzarse las capacidades del personal policial de las comisarías de los Frentes y Regiones Policiales en gestión de conflictos sociales y uso de la fuerza durante las intervenciones policiales para restablecer el orden público. ✓ Con relación al Objetivo Estratégico Institucional OEI.08 “Fortalecer la gestión institucional en el Ministerio del Interior”, se propone continuar con el acompañamiento técnico y fortalecimiento de capacidades al personal responsable de los sistemas administrativos de planeamiento, presupuesto, inversiones, entre otros sistemas; de las Unidades Orgánicas y Unidades Ejecutoras del Pliego MININTER,  para optimizar la prestación de servicios a la población. ✓ Finalmente, respecto al Objetivo Estratégico Sectorial OEI.09 “Fortalecer la Gestión de Riesgo de Desastres en el Ministerio del Interior”, se recomienda continuar con las capacitaciones y sensibilización al personal policial y civil para apoyar las diversas medidas orientadas a limitar la probabilidad de que ocurran daños por fenómenos adversos a un nivel en el que las necesidades puedan ser cubiertas con los recursos de la propia entidad.</t>
-  </si>
-  <si>
-    <t>texto</t>
   </si>
   <si>
     <t>question_text</t>
@@ -1991,10 +1988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67812DF5-D2B7-4320-BFD1-50E2A40FBE19}">
-  <dimension ref="A1:AQ1248"/>
+  <dimension ref="A1:AP1248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2008,8 +2005,8 @@
     <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.33203125" customWidth="1"/>
     <col min="13" max="14" width="21.44140625" customWidth="1"/>
     <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
@@ -2018,7 +2015,7 @@
     <col min="40" max="40" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -2145,11 +2142,8 @@
       <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>174</v>
       </c>
@@ -2189,6 +2183,9 @@
       <c r="N2" t="s">
         <v>48</v>
       </c>
+      <c r="O2" s="30" t="s">
+        <v>234</v>
+      </c>
       <c r="P2" t="s">
         <v>46</v>
       </c>
@@ -2261,11 +2258,8 @@
       <c r="AM2" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>174</v>
       </c>
@@ -2308,6 +2302,9 @@
       <c r="N3" t="s">
         <v>48</v>
       </c>
+      <c r="O3" s="30" t="s">
+        <v>234</v>
+      </c>
       <c r="P3" t="s">
         <v>60</v>
       </c>
@@ -2380,11 +2377,8 @@
       <c r="AM3" t="s">
         <v>57</v>
       </c>
-      <c r="AQ3" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>174</v>
       </c>
@@ -2427,6 +2421,9 @@
       <c r="N4" t="s">
         <v>48</v>
       </c>
+      <c r="O4" s="30" t="s">
+        <v>234</v>
+      </c>
       <c r="P4" t="s">
         <v>60</v>
       </c>
@@ -2499,11 +2496,8 @@
       <c r="AM4" t="s">
         <v>57</v>
       </c>
-      <c r="AQ4" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>174</v>
       </c>
@@ -2543,6 +2537,9 @@
       <c r="N5" t="s">
         <v>48</v>
       </c>
+      <c r="O5" s="30" t="s">
+        <v>235</v>
+      </c>
       <c r="P5" t="s">
         <v>68</v>
       </c>
@@ -2615,11 +2612,8 @@
       <c r="AM5" t="s">
         <v>42</v>
       </c>
-      <c r="AQ5" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>174</v>
       </c>
@@ -2659,6 +2653,9 @@
       <c r="N6" t="s">
         <v>48</v>
       </c>
+      <c r="O6" s="30" t="s">
+        <v>235</v>
+      </c>
       <c r="P6" t="s">
         <v>71</v>
       </c>
@@ -2731,11 +2728,8 @@
       <c r="AM6" t="s">
         <v>42</v>
       </c>
-      <c r="AQ6" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>174</v>
       </c>
@@ -2778,6 +2772,9 @@
       <c r="N7" t="s">
         <v>48</v>
       </c>
+      <c r="O7" s="30" t="s">
+        <v>235</v>
+      </c>
       <c r="P7" t="s">
         <v>74</v>
       </c>
@@ -2850,11 +2847,8 @@
       <c r="AM7" t="s">
         <v>57</v>
       </c>
-      <c r="AQ7" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>174</v>
       </c>
@@ -2897,6 +2891,9 @@
       <c r="N8" t="s">
         <v>48</v>
       </c>
+      <c r="O8" s="30" t="s">
+        <v>235</v>
+      </c>
       <c r="P8" t="s">
         <v>77</v>
       </c>
@@ -2969,11 +2966,8 @@
       <c r="AM8" t="s">
         <v>57</v>
       </c>
-      <c r="AQ8" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>174</v>
       </c>
@@ -3016,6 +3010,9 @@
       <c r="N9" t="s">
         <v>48</v>
       </c>
+      <c r="O9" t="s">
+        <v>236</v>
+      </c>
       <c r="P9" t="s">
         <v>82</v>
       </c>
@@ -3079,11 +3076,8 @@
       <c r="AM9" t="s">
         <v>42</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>174</v>
       </c>
@@ -3126,6 +3120,9 @@
       <c r="N10" t="s">
         <v>48</v>
       </c>
+      <c r="O10" t="s">
+        <v>236</v>
+      </c>
       <c r="P10" t="s">
         <v>82</v>
       </c>
@@ -3189,11 +3186,8 @@
       <c r="AM10" t="s">
         <v>57</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>174</v>
       </c>
@@ -3236,6 +3230,9 @@
       <c r="N11" t="s">
         <v>48</v>
       </c>
+      <c r="O11" t="s">
+        <v>236</v>
+      </c>
       <c r="P11" t="s">
         <v>82</v>
       </c>
@@ -3299,11 +3296,8 @@
       <c r="AM11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>174</v>
       </c>
@@ -3346,6 +3340,9 @@
       <c r="N12" t="s">
         <v>48</v>
       </c>
+      <c r="O12" t="s">
+        <v>236</v>
+      </c>
       <c r="P12" t="s">
         <v>82</v>
       </c>
@@ -3409,11 +3406,8 @@
       <c r="AM12" t="s">
         <v>89</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>174</v>
       </c>
@@ -3456,6 +3450,9 @@
       <c r="N13" t="s">
         <v>48</v>
       </c>
+      <c r="O13" t="s">
+        <v>237</v>
+      </c>
       <c r="P13" t="s">
         <v>82</v>
       </c>
@@ -3519,11 +3516,8 @@
       <c r="AM13" t="s">
         <v>42</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>174</v>
       </c>
@@ -3566,6 +3560,9 @@
       <c r="N14" t="s">
         <v>48</v>
       </c>
+      <c r="O14" t="s">
+        <v>237</v>
+      </c>
       <c r="P14" t="s">
         <v>82</v>
       </c>
@@ -3629,11 +3626,8 @@
       <c r="AM14" t="s">
         <v>57</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>174</v>
       </c>
@@ -3676,6 +3670,9 @@
       <c r="N15" t="s">
         <v>48</v>
       </c>
+      <c r="O15" t="s">
+        <v>237</v>
+      </c>
       <c r="P15" t="s">
         <v>82</v>
       </c>
@@ -3739,11 +3736,8 @@
       <c r="AM15" t="s">
         <v>57</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>174</v>
       </c>
@@ -3786,6 +3780,9 @@
       <c r="N16" t="s">
         <v>48</v>
       </c>
+      <c r="O16" t="s">
+        <v>237</v>
+      </c>
       <c r="P16" t="s">
         <v>82</v>
       </c>
@@ -3849,11 +3846,8 @@
       <c r="AM16" t="s">
         <v>89</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>174</v>
       </c>
@@ -3896,6 +3890,9 @@
       <c r="N17" t="s">
         <v>48</v>
       </c>
+      <c r="O17" t="s">
+        <v>238</v>
+      </c>
       <c r="P17" t="s">
         <v>82</v>
       </c>
@@ -3959,11 +3956,8 @@
       <c r="AM17" t="s">
         <v>42</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>174</v>
       </c>
@@ -4006,6 +4000,9 @@
       <c r="N18" t="s">
         <v>48</v>
       </c>
+      <c r="O18" t="s">
+        <v>238</v>
+      </c>
       <c r="P18" t="s">
         <v>82</v>
       </c>
@@ -4069,11 +4066,8 @@
       <c r="AM18" t="s">
         <v>57</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>174</v>
       </c>
@@ -4116,6 +4110,9 @@
       <c r="N19" t="s">
         <v>48</v>
       </c>
+      <c r="O19" t="s">
+        <v>238</v>
+      </c>
       <c r="P19" t="s">
         <v>82</v>
       </c>
@@ -4179,11 +4176,8 @@
       <c r="AM19" t="s">
         <v>57</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>174</v>
       </c>
@@ -4226,6 +4220,9 @@
       <c r="N20" t="s">
         <v>48</v>
       </c>
+      <c r="O20" t="s">
+        <v>238</v>
+      </c>
       <c r="P20" t="s">
         <v>82</v>
       </c>
@@ -4289,11 +4286,8 @@
       <c r="AM20" t="s">
         <v>89</v>
       </c>
-      <c r="AQ20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>174</v>
       </c>
@@ -4409,7 +4403,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>174</v>
       </c>
@@ -4525,7 +4519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>174</v>
       </c>
@@ -4641,7 +4635,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>174</v>
       </c>
@@ -4757,7 +4751,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>174</v>
       </c>
@@ -4873,7 +4867,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>174</v>
       </c>
@@ -4989,7 +4983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>174</v>
       </c>
@@ -5105,7 +5099,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>174</v>
       </c>
@@ -5221,7 +5215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>174</v>
       </c>
@@ -5264,6 +5258,9 @@
       <c r="N29" t="s">
         <v>48</v>
       </c>
+      <c r="O29" t="s">
+        <v>239</v>
+      </c>
       <c r="P29" t="s">
         <v>82</v>
       </c>
@@ -5327,11 +5324,8 @@
       <c r="AM29" t="s">
         <v>42</v>
       </c>
-      <c r="AQ29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>174</v>
       </c>
@@ -5374,6 +5368,9 @@
       <c r="N30" t="s">
         <v>48</v>
       </c>
+      <c r="O30" t="s">
+        <v>239</v>
+      </c>
       <c r="P30" t="s">
         <v>82</v>
       </c>
@@ -5437,11 +5434,8 @@
       <c r="AM30" t="s">
         <v>57</v>
       </c>
-      <c r="AQ30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>174</v>
       </c>
@@ -5484,6 +5478,9 @@
       <c r="N31" t="s">
         <v>48</v>
       </c>
+      <c r="O31" t="s">
+        <v>239</v>
+      </c>
       <c r="P31" t="s">
         <v>82</v>
       </c>
@@ -5547,11 +5544,8 @@
       <c r="AM31" t="s">
         <v>57</v>
       </c>
-      <c r="AQ31" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>174</v>
       </c>
@@ -5594,6 +5588,9 @@
       <c r="N32" t="s">
         <v>48</v>
       </c>
+      <c r="O32" t="s">
+        <v>239</v>
+      </c>
       <c r="P32" t="s">
         <v>82</v>
       </c>
@@ -5657,11 +5654,8 @@
       <c r="AM32" t="s">
         <v>89</v>
       </c>
-      <c r="AQ32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>174</v>
       </c>
@@ -5704,6 +5698,9 @@
       <c r="N33" t="s">
         <v>48</v>
       </c>
+      <c r="O33" t="s">
+        <v>240</v>
+      </c>
       <c r="P33" t="s">
         <v>82</v>
       </c>
@@ -5767,11 +5764,8 @@
       <c r="AM33" t="s">
         <v>42</v>
       </c>
-      <c r="AQ33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>174</v>
       </c>
@@ -5814,6 +5808,9 @@
       <c r="N34" t="s">
         <v>48</v>
       </c>
+      <c r="O34" t="s">
+        <v>240</v>
+      </c>
       <c r="P34" t="s">
         <v>82</v>
       </c>
@@ -5877,11 +5874,8 @@
       <c r="AM34" t="s">
         <v>57</v>
       </c>
-      <c r="AQ34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>174</v>
       </c>
@@ -5924,6 +5918,9 @@
       <c r="N35" t="s">
         <v>48</v>
       </c>
+      <c r="O35" t="s">
+        <v>240</v>
+      </c>
       <c r="P35" t="s">
         <v>82</v>
       </c>
@@ -5987,11 +5984,8 @@
       <c r="AM35" t="s">
         <v>57</v>
       </c>
-      <c r="AQ35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>174</v>
       </c>
@@ -6034,6 +6028,9 @@
       <c r="N36" t="s">
         <v>48</v>
       </c>
+      <c r="O36" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="P36" t="s">
         <v>82</v>
       </c>
@@ -6097,11 +6094,8 @@
       <c r="AM36" t="s">
         <v>42</v>
       </c>
-      <c r="AQ36" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>174</v>
       </c>
@@ -6144,6 +6138,9 @@
       <c r="N37" t="s">
         <v>48</v>
       </c>
+      <c r="O37" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="P37" t="s">
         <v>82</v>
       </c>
@@ -6207,11 +6204,8 @@
       <c r="AM37" t="s">
         <v>57</v>
       </c>
-      <c r="AQ37" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>174</v>
       </c>
@@ -6254,6 +6248,9 @@
       <c r="N38" t="s">
         <v>48</v>
       </c>
+      <c r="O38" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="P38" t="s">
         <v>82</v>
       </c>
@@ -6317,11 +6314,8 @@
       <c r="AM38" t="s">
         <v>57</v>
       </c>
-      <c r="AQ38" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>174</v>
       </c>
@@ -6364,6 +6358,9 @@
       <c r="N39" t="s">
         <v>48</v>
       </c>
+      <c r="O39" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="P39" t="s">
         <v>82</v>
       </c>
@@ -6427,11 +6424,8 @@
       <c r="AM39" t="s">
         <v>89</v>
       </c>
-      <c r="AQ39" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>174</v>
       </c>
@@ -6474,6 +6468,9 @@
       <c r="N40" t="s">
         <v>48</v>
       </c>
+      <c r="O40" t="s">
+        <v>242</v>
+      </c>
       <c r="P40" t="s">
         <v>82</v>
       </c>
@@ -6537,11 +6534,8 @@
       <c r="AM40" t="s">
         <v>42</v>
       </c>
-      <c r="AQ40" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>174</v>
       </c>
@@ -6584,6 +6578,9 @@
       <c r="N41" t="s">
         <v>48</v>
       </c>
+      <c r="O41" t="s">
+        <v>242</v>
+      </c>
       <c r="P41" t="s">
         <v>82</v>
       </c>
@@ -6647,11 +6644,8 @@
       <c r="AM41" t="s">
         <v>57</v>
       </c>
-      <c r="AQ41" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>174</v>
       </c>
@@ -6694,6 +6688,9 @@
       <c r="N42" t="s">
         <v>48</v>
       </c>
+      <c r="O42" t="s">
+        <v>242</v>
+      </c>
       <c r="P42" t="s">
         <v>82</v>
       </c>
@@ -6757,11 +6754,8 @@
       <c r="AM42" t="s">
         <v>57</v>
       </c>
-      <c r="AQ42" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>174</v>
       </c>
@@ -6804,6 +6798,9 @@
       <c r="N43" t="s">
         <v>48</v>
       </c>
+      <c r="O43" t="s">
+        <v>242</v>
+      </c>
       <c r="P43" t="s">
         <v>82</v>
       </c>
@@ -6867,11 +6864,8 @@
       <c r="AM43" t="s">
         <v>89</v>
       </c>
-      <c r="AQ43" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>174</v>
       </c>
@@ -6978,7 +6972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>190</v>
       </c>
@@ -7018,6 +7012,9 @@
       <c r="N45" t="s">
         <v>48</v>
       </c>
+      <c r="O45" t="s">
+        <v>243</v>
+      </c>
       <c r="P45" t="s">
         <v>46</v>
       </c>
@@ -7090,11 +7087,8 @@
       <c r="AM45" t="s">
         <v>42</v>
       </c>
-      <c r="AQ45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>190</v>
       </c>
@@ -7137,6 +7131,9 @@
       <c r="N46" t="s">
         <v>48</v>
       </c>
+      <c r="O46" t="s">
+        <v>243</v>
+      </c>
       <c r="P46" t="s">
         <v>60</v>
       </c>
@@ -7209,11 +7206,8 @@
       <c r="AM46" t="s">
         <v>57</v>
       </c>
-      <c r="AQ46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>190</v>
       </c>
@@ -7256,6 +7250,9 @@
       <c r="N47" t="s">
         <v>48</v>
       </c>
+      <c r="O47" t="s">
+        <v>243</v>
+      </c>
       <c r="P47" t="s">
         <v>60</v>
       </c>
@@ -7328,11 +7325,8 @@
       <c r="AM47" t="s">
         <v>57</v>
       </c>
-      <c r="AQ47" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>190</v>
       </c>
@@ -7372,6 +7366,9 @@
       <c r="N48" t="s">
         <v>48</v>
       </c>
+      <c r="O48" t="s">
+        <v>244</v>
+      </c>
       <c r="P48" t="s">
         <v>68</v>
       </c>
@@ -7444,11 +7441,8 @@
       <c r="AM48" t="s">
         <v>42</v>
       </c>
-      <c r="AQ48" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>190</v>
       </c>
@@ -7488,6 +7482,9 @@
       <c r="N49" t="s">
         <v>48</v>
       </c>
+      <c r="O49" t="s">
+        <v>244</v>
+      </c>
       <c r="P49" t="s">
         <v>71</v>
       </c>
@@ -7560,11 +7557,8 @@
       <c r="AM49" t="s">
         <v>42</v>
       </c>
-      <c r="AQ49" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>190</v>
       </c>
@@ -7607,6 +7601,9 @@
       <c r="N50" t="s">
         <v>48</v>
       </c>
+      <c r="O50" t="s">
+        <v>244</v>
+      </c>
       <c r="P50" t="s">
         <v>74</v>
       </c>
@@ -7679,11 +7676,8 @@
       <c r="AM50" t="s">
         <v>57</v>
       </c>
-      <c r="AQ50" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>190</v>
       </c>
@@ -7726,6 +7720,9 @@
       <c r="N51" t="s">
         <v>48</v>
       </c>
+      <c r="O51" t="s">
+        <v>244</v>
+      </c>
       <c r="P51" t="s">
         <v>77</v>
       </c>
@@ -7798,11 +7795,8 @@
       <c r="AM51" t="s">
         <v>57</v>
       </c>
-      <c r="AQ51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>190</v>
       </c>
@@ -7845,6 +7839,9 @@
       <c r="N52" t="s">
         <v>48</v>
       </c>
+      <c r="O52" t="s">
+        <v>245</v>
+      </c>
       <c r="P52" t="s">
         <v>82</v>
       </c>
@@ -7908,11 +7905,8 @@
       <c r="AM52" t="s">
         <v>42</v>
       </c>
-      <c r="AQ52" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>190</v>
       </c>
@@ -7955,6 +7949,9 @@
       <c r="N53" t="s">
         <v>48</v>
       </c>
+      <c r="O53" t="s">
+        <v>245</v>
+      </c>
       <c r="P53" t="s">
         <v>82</v>
       </c>
@@ -8018,11 +8015,8 @@
       <c r="AM53" t="s">
         <v>57</v>
       </c>
-      <c r="AQ53" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>190</v>
       </c>
@@ -8065,6 +8059,9 @@
       <c r="N54" t="s">
         <v>48</v>
       </c>
+      <c r="O54" t="s">
+        <v>245</v>
+      </c>
       <c r="P54" t="s">
         <v>82</v>
       </c>
@@ -8128,11 +8125,8 @@
       <c r="AM54" t="s">
         <v>57</v>
       </c>
-      <c r="AQ54" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>190</v>
       </c>
@@ -8175,6 +8169,9 @@
       <c r="N55" t="s">
         <v>48</v>
       </c>
+      <c r="O55" t="s">
+        <v>245</v>
+      </c>
       <c r="P55" t="s">
         <v>82</v>
       </c>
@@ -8238,11 +8235,8 @@
       <c r="AM55" t="s">
         <v>89</v>
       </c>
-      <c r="AQ55" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>190</v>
       </c>
@@ -8285,6 +8279,9 @@
       <c r="N56" t="s">
         <v>48</v>
       </c>
+      <c r="O56" t="s">
+        <v>246</v>
+      </c>
       <c r="P56" t="s">
         <v>82</v>
       </c>
@@ -8348,11 +8345,8 @@
       <c r="AM56" t="s">
         <v>42</v>
       </c>
-      <c r="AQ56" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>190</v>
       </c>
@@ -8395,6 +8389,9 @@
       <c r="N57" t="s">
         <v>48</v>
       </c>
+      <c r="O57" t="s">
+        <v>246</v>
+      </c>
       <c r="P57" t="s">
         <v>82</v>
       </c>
@@ -8458,11 +8455,8 @@
       <c r="AM57" t="s">
         <v>57</v>
       </c>
-      <c r="AQ57" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>190</v>
       </c>
@@ -8505,6 +8499,9 @@
       <c r="N58" t="s">
         <v>48</v>
       </c>
+      <c r="O58" t="s">
+        <v>246</v>
+      </c>
       <c r="P58" t="s">
         <v>82</v>
       </c>
@@ -8568,11 +8565,8 @@
       <c r="AM58" t="s">
         <v>57</v>
       </c>
-      <c r="AQ58" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>190</v>
       </c>
@@ -8615,6 +8609,9 @@
       <c r="N59" t="s">
         <v>48</v>
       </c>
+      <c r="O59" t="s">
+        <v>246</v>
+      </c>
       <c r="P59" t="s">
         <v>82</v>
       </c>
@@ -8678,11 +8675,8 @@
       <c r="AM59" t="s">
         <v>89</v>
       </c>
-      <c r="AQ59" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>190</v>
       </c>
@@ -8725,6 +8719,9 @@
       <c r="N60" t="s">
         <v>48</v>
       </c>
+      <c r="O60" t="s">
+        <v>247</v>
+      </c>
       <c r="P60" t="s">
         <v>82</v>
       </c>
@@ -8788,11 +8785,8 @@
       <c r="AM60" t="s">
         <v>42</v>
       </c>
-      <c r="AQ60" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>190</v>
       </c>
@@ -8835,6 +8829,9 @@
       <c r="N61" t="s">
         <v>48</v>
       </c>
+      <c r="O61" t="s">
+        <v>247</v>
+      </c>
       <c r="P61" t="s">
         <v>82</v>
       </c>
@@ -8898,11 +8895,8 @@
       <c r="AM61" t="s">
         <v>57</v>
       </c>
-      <c r="AQ61" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>190</v>
       </c>
@@ -8945,6 +8939,9 @@
       <c r="N62" t="s">
         <v>48</v>
       </c>
+      <c r="O62" t="s">
+        <v>247</v>
+      </c>
       <c r="P62" t="s">
         <v>82</v>
       </c>
@@ -9008,11 +9005,8 @@
       <c r="AM62" t="s">
         <v>57</v>
       </c>
-      <c r="AQ62" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>190</v>
       </c>
@@ -9055,6 +9049,9 @@
       <c r="N63" t="s">
         <v>48</v>
       </c>
+      <c r="O63" t="s">
+        <v>247</v>
+      </c>
       <c r="P63" t="s">
         <v>82</v>
       </c>
@@ -9118,11 +9115,8 @@
       <c r="AM63" t="s">
         <v>89</v>
       </c>
-      <c r="AQ63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>190</v>
       </c>
@@ -9165,6 +9159,9 @@
       <c r="N64" t="s">
         <v>48</v>
       </c>
+      <c r="O64" t="s">
+        <v>248</v>
+      </c>
       <c r="P64" t="s">
         <v>82</v>
       </c>
@@ -9228,11 +9225,8 @@
       <c r="AM64" t="s">
         <v>42</v>
       </c>
-      <c r="AQ64" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>190</v>
       </c>
@@ -9275,6 +9269,9 @@
       <c r="N65" t="s">
         <v>48</v>
       </c>
+      <c r="O65" t="s">
+        <v>248</v>
+      </c>
       <c r="P65" t="s">
         <v>82</v>
       </c>
@@ -9338,11 +9335,8 @@
       <c r="AM65" t="s">
         <v>57</v>
       </c>
-      <c r="AQ65" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>190</v>
       </c>
@@ -9385,6 +9379,9 @@
       <c r="N66" t="s">
         <v>48</v>
       </c>
+      <c r="O66" t="s">
+        <v>248</v>
+      </c>
       <c r="P66" t="s">
         <v>82</v>
       </c>
@@ -9448,11 +9445,8 @@
       <c r="AM66" t="s">
         <v>57</v>
       </c>
-      <c r="AQ66" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>190</v>
       </c>
@@ -9495,6 +9489,9 @@
       <c r="N67" t="s">
         <v>48</v>
       </c>
+      <c r="O67" t="s">
+        <v>248</v>
+      </c>
       <c r="P67" t="s">
         <v>82</v>
       </c>
@@ -9558,11 +9555,8 @@
       <c r="AM67" t="s">
         <v>89</v>
       </c>
-      <c r="AQ67" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>190</v>
       </c>
@@ -9605,6 +9599,9 @@
       <c r="N68" t="s">
         <v>48</v>
       </c>
+      <c r="O68" t="s">
+        <v>249</v>
+      </c>
       <c r="P68" t="s">
         <v>82</v>
       </c>
@@ -9668,11 +9665,8 @@
       <c r="AM68" t="s">
         <v>42</v>
       </c>
-      <c r="AQ68" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>190</v>
       </c>
@@ -9715,6 +9709,9 @@
       <c r="N69" t="s">
         <v>48</v>
       </c>
+      <c r="O69" t="s">
+        <v>249</v>
+      </c>
       <c r="P69" t="s">
         <v>82</v>
       </c>
@@ -9778,11 +9775,8 @@
       <c r="AM69" t="s">
         <v>57</v>
       </c>
-      <c r="AQ69" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>190</v>
       </c>
@@ -9825,6 +9819,9 @@
       <c r="N70" t="s">
         <v>48</v>
       </c>
+      <c r="O70" t="s">
+        <v>249</v>
+      </c>
       <c r="P70" t="s">
         <v>82</v>
       </c>
@@ -9888,11 +9885,8 @@
       <c r="AM70" t="s">
         <v>57</v>
       </c>
-      <c r="AQ70" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>190</v>
       </c>
@@ -9935,6 +9929,9 @@
       <c r="N71" t="s">
         <v>48</v>
       </c>
+      <c r="O71" t="s">
+        <v>249</v>
+      </c>
       <c r="P71" t="s">
         <v>82</v>
       </c>
@@ -9998,11 +9995,8 @@
       <c r="AM71" t="s">
         <v>89</v>
       </c>
-      <c r="AQ71" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>190</v>
       </c>
@@ -10045,6 +10039,9 @@
       <c r="N72" t="s">
         <v>48</v>
       </c>
+      <c r="O72" t="s">
+        <v>250</v>
+      </c>
       <c r="P72" t="s">
         <v>82</v>
       </c>
@@ -10108,11 +10105,8 @@
       <c r="AM72" t="s">
         <v>42</v>
       </c>
-      <c r="AQ72" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>190</v>
       </c>
@@ -10155,6 +10149,9 @@
       <c r="N73" t="s">
         <v>48</v>
       </c>
+      <c r="O73" t="s">
+        <v>250</v>
+      </c>
       <c r="P73" t="s">
         <v>82</v>
       </c>
@@ -10218,11 +10215,8 @@
       <c r="AM73" t="s">
         <v>57</v>
       </c>
-      <c r="AQ73" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>190</v>
       </c>
@@ -10265,6 +10259,9 @@
       <c r="N74" t="s">
         <v>48</v>
       </c>
+      <c r="O74" t="s">
+        <v>250</v>
+      </c>
       <c r="P74" t="s">
         <v>82</v>
       </c>
@@ -10328,11 +10325,8 @@
       <c r="AM74" t="s">
         <v>57</v>
       </c>
-      <c r="AQ74" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>190</v>
       </c>
@@ -10375,6 +10369,9 @@
       <c r="N75" t="s">
         <v>48</v>
       </c>
+      <c r="O75" t="s">
+        <v>250</v>
+      </c>
       <c r="P75" t="s">
         <v>82</v>
       </c>
@@ -10438,11 +10435,8 @@
       <c r="AM75" t="s">
         <v>89</v>
       </c>
-      <c r="AQ75" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>190</v>
       </c>
@@ -10485,6 +10479,9 @@
       <c r="N76" t="s">
         <v>48</v>
       </c>
+      <c r="O76" t="s">
+        <v>251</v>
+      </c>
       <c r="P76" t="s">
         <v>82</v>
       </c>
@@ -10548,11 +10545,8 @@
       <c r="AM76" t="s">
         <v>42</v>
       </c>
-      <c r="AQ76" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>190</v>
       </c>
@@ -10595,6 +10589,9 @@
       <c r="N77" t="s">
         <v>48</v>
       </c>
+      <c r="O77" t="s">
+        <v>252</v>
+      </c>
       <c r="P77" t="s">
         <v>82</v>
       </c>
@@ -10658,11 +10655,8 @@
       <c r="AM77" t="s">
         <v>57</v>
       </c>
-      <c r="AQ77" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>190</v>
       </c>
@@ -10705,6 +10699,9 @@
       <c r="N78" t="s">
         <v>48</v>
       </c>
+      <c r="O78" t="s">
+        <v>253</v>
+      </c>
       <c r="P78" t="s">
         <v>82</v>
       </c>
@@ -10768,11 +10765,8 @@
       <c r="AM78" t="s">
         <v>57</v>
       </c>
-      <c r="AQ78" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>190</v>
       </c>
@@ -10815,6 +10809,9 @@
       <c r="N79" t="s">
         <v>48</v>
       </c>
+      <c r="O79" t="s">
+        <v>254</v>
+      </c>
       <c r="P79" t="s">
         <v>82</v>
       </c>
@@ -10878,11 +10875,8 @@
       <c r="AM79" t="s">
         <v>42</v>
       </c>
-      <c r="AQ79" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>190</v>
       </c>
@@ -10925,6 +10919,9 @@
       <c r="N80" t="s">
         <v>48</v>
       </c>
+      <c r="O80" t="s">
+        <v>254</v>
+      </c>
       <c r="P80" t="s">
         <v>82</v>
       </c>
@@ -10988,11 +10985,8 @@
       <c r="AM80" t="s">
         <v>57</v>
       </c>
-      <c r="AQ80" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>190</v>
       </c>
@@ -11035,6 +11029,9 @@
       <c r="N81" t="s">
         <v>48</v>
       </c>
+      <c r="O81" t="s">
+        <v>254</v>
+      </c>
       <c r="P81" t="s">
         <v>82</v>
       </c>
@@ -11098,11 +11095,8 @@
       <c r="AM81" t="s">
         <v>57</v>
       </c>
-      <c r="AQ81" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>190</v>
       </c>
@@ -11145,6 +11139,9 @@
       <c r="N82" t="s">
         <v>48</v>
       </c>
+      <c r="O82" t="s">
+        <v>254</v>
+      </c>
       <c r="P82" t="s">
         <v>82</v>
       </c>
@@ -11208,11 +11205,8 @@
       <c r="AM82" t="s">
         <v>89</v>
       </c>
-      <c r="AQ82" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>190</v>
       </c>
@@ -11255,6 +11249,9 @@
       <c r="N83" t="s">
         <v>48</v>
       </c>
+      <c r="O83" t="s">
+        <v>255</v>
+      </c>
       <c r="P83" t="s">
         <v>82</v>
       </c>
@@ -11318,11 +11315,8 @@
       <c r="AM83" t="s">
         <v>42</v>
       </c>
-      <c r="AQ83" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>190</v>
       </c>
@@ -11365,6 +11359,9 @@
       <c r="N84" t="s">
         <v>48</v>
       </c>
+      <c r="O84" t="s">
+        <v>256</v>
+      </c>
       <c r="P84" t="s">
         <v>82</v>
       </c>
@@ -11428,11 +11425,8 @@
       <c r="AM84" t="s">
         <v>57</v>
       </c>
-      <c r="AQ84" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>190</v>
       </c>
@@ -11475,6 +11469,9 @@
       <c r="N85" t="s">
         <v>48</v>
       </c>
+      <c r="O85" t="s">
+        <v>257</v>
+      </c>
       <c r="P85" t="s">
         <v>82</v>
       </c>
@@ -11538,11 +11535,8 @@
       <c r="AM85" t="s">
         <v>57</v>
       </c>
-      <c r="AQ85" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>190</v>
       </c>
@@ -11585,6 +11579,9 @@
       <c r="N86" t="s">
         <v>48</v>
       </c>
+      <c r="O86" t="s">
+        <v>258</v>
+      </c>
       <c r="P86" t="s">
         <v>82</v>
       </c>
@@ -11648,11 +11645,8 @@
       <c r="AM86" t="s">
         <v>89</v>
       </c>
-      <c r="AQ86" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>190</v>
       </c>
@@ -11759,7 +11753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>203</v>
       </c>
@@ -11799,6 +11793,9 @@
       <c r="N88" t="s">
         <v>48</v>
       </c>
+      <c r="O88" t="s">
+        <v>259</v>
+      </c>
       <c r="P88" t="s">
         <v>46</v>
       </c>
@@ -11871,11 +11868,8 @@
       <c r="AM88" t="s">
         <v>42</v>
       </c>
-      <c r="AQ88" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>203</v>
       </c>
@@ -11918,6 +11912,9 @@
       <c r="N89" t="s">
         <v>48</v>
       </c>
+      <c r="O89" t="s">
+        <v>259</v>
+      </c>
       <c r="P89" t="s">
         <v>60</v>
       </c>
@@ -11990,11 +11987,8 @@
       <c r="AM89" t="s">
         <v>57</v>
       </c>
-      <c r="AQ89" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>203</v>
       </c>
@@ -12037,6 +12031,9 @@
       <c r="N90" t="s">
         <v>48</v>
       </c>
+      <c r="O90" t="s">
+        <v>259</v>
+      </c>
       <c r="P90" t="s">
         <v>60</v>
       </c>
@@ -12109,11 +12106,8 @@
       <c r="AM90" t="s">
         <v>57</v>
       </c>
-      <c r="AQ90" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>203</v>
       </c>
@@ -12153,6 +12147,9 @@
       <c r="N91" t="s">
         <v>48</v>
       </c>
+      <c r="O91" s="30" t="s">
+        <v>260</v>
+      </c>
       <c r="P91" t="s">
         <v>68</v>
       </c>
@@ -12225,11 +12222,8 @@
       <c r="AM91" t="s">
         <v>42</v>
       </c>
-      <c r="AQ91" s="30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>203</v>
       </c>
@@ -12269,6 +12263,9 @@
       <c r="N92" t="s">
         <v>48</v>
       </c>
+      <c r="O92" s="30" t="s">
+        <v>260</v>
+      </c>
       <c r="P92" t="s">
         <v>71</v>
       </c>
@@ -12341,11 +12338,8 @@
       <c r="AM92" t="s">
         <v>42</v>
       </c>
-      <c r="AQ92" s="30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>203</v>
       </c>
@@ -12388,6 +12382,9 @@
       <c r="N93" t="s">
         <v>48</v>
       </c>
+      <c r="O93" s="30" t="s">
+        <v>260</v>
+      </c>
       <c r="P93" t="s">
         <v>74</v>
       </c>
@@ -12460,11 +12457,8 @@
       <c r="AM93" t="s">
         <v>57</v>
       </c>
-      <c r="AQ93" s="30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>203</v>
       </c>
@@ -12507,6 +12501,9 @@
       <c r="N94" t="s">
         <v>48</v>
       </c>
+      <c r="O94" s="30" t="s">
+        <v>260</v>
+      </c>
       <c r="P94" t="s">
         <v>77</v>
       </c>
@@ -12579,11 +12576,8 @@
       <c r="AM94" t="s">
         <v>57</v>
       </c>
-      <c r="AQ94" s="30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>203</v>
       </c>
@@ -12626,6 +12620,9 @@
       <c r="N95" t="s">
         <v>48</v>
       </c>
+      <c r="O95" t="s">
+        <v>261</v>
+      </c>
       <c r="P95" t="s">
         <v>82</v>
       </c>
@@ -12689,11 +12686,8 @@
       <c r="AM95" t="s">
         <v>42</v>
       </c>
-      <c r="AQ95" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>203</v>
       </c>
@@ -12736,6 +12730,9 @@
       <c r="N96" t="s">
         <v>48</v>
       </c>
+      <c r="O96" t="s">
+        <v>261</v>
+      </c>
       <c r="P96" t="s">
         <v>82</v>
       </c>
@@ -12799,11 +12796,8 @@
       <c r="AM96" t="s">
         <v>57</v>
       </c>
-      <c r="AQ96" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>203</v>
       </c>
@@ -12846,6 +12840,9 @@
       <c r="N97" t="s">
         <v>48</v>
       </c>
+      <c r="O97" t="s">
+        <v>261</v>
+      </c>
       <c r="P97" t="s">
         <v>82</v>
       </c>
@@ -12909,11 +12906,8 @@
       <c r="AM97" t="s">
         <v>57</v>
       </c>
-      <c r="AQ97" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>203</v>
       </c>
@@ -12956,6 +12950,9 @@
       <c r="N98" t="s">
         <v>48</v>
       </c>
+      <c r="O98" t="s">
+        <v>261</v>
+      </c>
       <c r="P98" t="s">
         <v>82</v>
       </c>
@@ -13019,11 +13016,8 @@
       <c r="AM98" t="s">
         <v>89</v>
       </c>
-      <c r="AQ98" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>203</v>
       </c>
@@ -13066,6 +13060,9 @@
       <c r="N99" t="s">
         <v>48</v>
       </c>
+      <c r="O99" t="s">
+        <v>262</v>
+      </c>
       <c r="P99" t="s">
         <v>82</v>
       </c>
@@ -13129,11 +13126,8 @@
       <c r="AM99" t="s">
         <v>42</v>
       </c>
-      <c r="AQ99" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>203</v>
       </c>
@@ -13176,6 +13170,9 @@
       <c r="N100" t="s">
         <v>48</v>
       </c>
+      <c r="O100" t="s">
+        <v>262</v>
+      </c>
       <c r="P100" t="s">
         <v>82</v>
       </c>
@@ -13239,11 +13236,8 @@
       <c r="AM100" t="s">
         <v>57</v>
       </c>
-      <c r="AQ100" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>203</v>
       </c>
@@ -13286,6 +13280,9 @@
       <c r="N101" t="s">
         <v>48</v>
       </c>
+      <c r="O101" t="s">
+        <v>262</v>
+      </c>
       <c r="P101" t="s">
         <v>82</v>
       </c>
@@ -13349,11 +13346,8 @@
       <c r="AM101" t="s">
         <v>57</v>
       </c>
-      <c r="AQ101" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>203</v>
       </c>
@@ -13396,6 +13390,9 @@
       <c r="N102" t="s">
         <v>48</v>
       </c>
+      <c r="O102" t="s">
+        <v>262</v>
+      </c>
       <c r="P102" t="s">
         <v>82</v>
       </c>
@@ -13459,11 +13456,8 @@
       <c r="AM102" t="s">
         <v>89</v>
       </c>
-      <c r="AQ102" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>203</v>
       </c>
@@ -13506,6 +13500,9 @@
       <c r="N103" t="s">
         <v>48</v>
       </c>
+      <c r="O103" t="s">
+        <v>263</v>
+      </c>
       <c r="P103" t="s">
         <v>82</v>
       </c>
@@ -13569,11 +13566,8 @@
       <c r="AM103" t="s">
         <v>42</v>
       </c>
-      <c r="AQ103" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>203</v>
       </c>
@@ -13616,6 +13610,9 @@
       <c r="N104" t="s">
         <v>48</v>
       </c>
+      <c r="O104" t="s">
+        <v>263</v>
+      </c>
       <c r="P104" t="s">
         <v>82</v>
       </c>
@@ -13679,11 +13676,8 @@
       <c r="AM104" t="s">
         <v>57</v>
       </c>
-      <c r="AQ104" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>203</v>
       </c>
@@ -13726,6 +13720,9 @@
       <c r="N105" t="s">
         <v>48</v>
       </c>
+      <c r="O105" t="s">
+        <v>263</v>
+      </c>
       <c r="P105" t="s">
         <v>82</v>
       </c>
@@ -13789,11 +13786,8 @@
       <c r="AM105" t="s">
         <v>57</v>
       </c>
-      <c r="AQ105" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>203</v>
       </c>
@@ -13836,6 +13830,9 @@
       <c r="N106" t="s">
         <v>48</v>
       </c>
+      <c r="O106" t="s">
+        <v>263</v>
+      </c>
       <c r="P106" t="s">
         <v>82</v>
       </c>
@@ -13899,11 +13896,8 @@
       <c r="AM106" t="s">
         <v>89</v>
       </c>
-      <c r="AQ106" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>203</v>
       </c>
@@ -13946,6 +13940,9 @@
       <c r="N107" t="s">
         <v>48</v>
       </c>
+      <c r="O107" t="s">
+        <v>264</v>
+      </c>
       <c r="P107" t="s">
         <v>82</v>
       </c>
@@ -14009,11 +14006,8 @@
       <c r="AM107" t="s">
         <v>42</v>
       </c>
-      <c r="AQ107" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>203</v>
       </c>
@@ -14056,6 +14050,9 @@
       <c r="N108" t="s">
         <v>48</v>
       </c>
+      <c r="O108" t="s">
+        <v>264</v>
+      </c>
       <c r="P108" t="s">
         <v>82</v>
       </c>
@@ -14119,11 +14116,8 @@
       <c r="AM108" t="s">
         <v>57</v>
       </c>
-      <c r="AQ108" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>203</v>
       </c>
@@ -14166,6 +14160,9 @@
       <c r="N109" t="s">
         <v>48</v>
       </c>
+      <c r="O109" t="s">
+        <v>264</v>
+      </c>
       <c r="P109" t="s">
         <v>82</v>
       </c>
@@ -14229,11 +14226,8 @@
       <c r="AM109" t="s">
         <v>57</v>
       </c>
-      <c r="AQ109" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>203</v>
       </c>
@@ -14276,6 +14270,9 @@
       <c r="N110" t="s">
         <v>48</v>
       </c>
+      <c r="O110" t="s">
+        <v>264</v>
+      </c>
       <c r="P110" t="s">
         <v>82</v>
       </c>
@@ -14339,11 +14336,8 @@
       <c r="AM110" t="s">
         <v>89</v>
       </c>
-      <c r="AQ110" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>203</v>
       </c>
@@ -14386,6 +14380,9 @@
       <c r="N111" t="s">
         <v>48</v>
       </c>
+      <c r="O111" t="s">
+        <v>265</v>
+      </c>
       <c r="P111" t="s">
         <v>82</v>
       </c>
@@ -14449,11 +14446,8 @@
       <c r="AM111" t="s">
         <v>42</v>
       </c>
-      <c r="AQ111" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>203</v>
       </c>
@@ -14496,6 +14490,9 @@
       <c r="N112" t="s">
         <v>48</v>
       </c>
+      <c r="O112" t="s">
+        <v>265</v>
+      </c>
       <c r="P112" t="s">
         <v>82</v>
       </c>
@@ -14559,11 +14556,8 @@
       <c r="AM112" t="s">
         <v>57</v>
       </c>
-      <c r="AQ112" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>203</v>
       </c>
@@ -14606,6 +14600,9 @@
       <c r="N113" t="s">
         <v>48</v>
       </c>
+      <c r="O113" t="s">
+        <v>265</v>
+      </c>
       <c r="P113" t="s">
         <v>82</v>
       </c>
@@ -14669,11 +14666,8 @@
       <c r="AM113" t="s">
         <v>57</v>
       </c>
-      <c r="AQ113" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>203</v>
       </c>
@@ -14716,6 +14710,9 @@
       <c r="N114" t="s">
         <v>48</v>
       </c>
+      <c r="O114" t="s">
+        <v>265</v>
+      </c>
       <c r="P114" t="s">
         <v>82</v>
       </c>
@@ -14779,11 +14776,8 @@
       <c r="AM114" t="s">
         <v>89</v>
       </c>
-      <c r="AQ114" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>203</v>
       </c>
@@ -14826,6 +14820,9 @@
       <c r="N115" t="s">
         <v>48</v>
       </c>
+      <c r="O115" t="s">
+        <v>266</v>
+      </c>
       <c r="P115" t="s">
         <v>82</v>
       </c>
@@ -14889,11 +14886,8 @@
       <c r="AM115" t="s">
         <v>42</v>
       </c>
-      <c r="AQ115" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>203</v>
       </c>
@@ -14936,6 +14930,9 @@
       <c r="N116" t="s">
         <v>48</v>
       </c>
+      <c r="O116" t="s">
+        <v>266</v>
+      </c>
       <c r="P116" t="s">
         <v>82</v>
       </c>
@@ -14999,11 +14996,8 @@
       <c r="AM116" t="s">
         <v>57</v>
       </c>
-      <c r="AQ116" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>203</v>
       </c>
@@ -15046,6 +15040,9 @@
       <c r="N117" t="s">
         <v>48</v>
       </c>
+      <c r="O117" t="s">
+        <v>266</v>
+      </c>
       <c r="P117" t="s">
         <v>82</v>
       </c>
@@ -15109,11 +15106,8 @@
       <c r="AM117" t="s">
         <v>57</v>
       </c>
-      <c r="AQ117" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>203</v>
       </c>
@@ -15156,6 +15150,9 @@
       <c r="N118" t="s">
         <v>48</v>
       </c>
+      <c r="O118" t="s">
+        <v>266</v>
+      </c>
       <c r="P118" t="s">
         <v>82</v>
       </c>
@@ -15219,11 +15216,8 @@
       <c r="AM118" t="s">
         <v>89</v>
       </c>
-      <c r="AQ118" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>203</v>
       </c>
@@ -15266,6 +15260,9 @@
       <c r="N119" t="s">
         <v>48</v>
       </c>
+      <c r="O119" t="s">
+        <v>267</v>
+      </c>
       <c r="P119" t="s">
         <v>82</v>
       </c>
@@ -15329,11 +15326,8 @@
       <c r="AM119" t="s">
         <v>42</v>
       </c>
-      <c r="AQ119" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>203</v>
       </c>
@@ -15376,6 +15370,9 @@
       <c r="N120" t="s">
         <v>48</v>
       </c>
+      <c r="O120" t="s">
+        <v>267</v>
+      </c>
       <c r="P120" t="s">
         <v>82</v>
       </c>
@@ -15439,11 +15436,8 @@
       <c r="AM120" t="s">
         <v>57</v>
       </c>
-      <c r="AQ120" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>203</v>
       </c>
@@ -15486,6 +15480,9 @@
       <c r="N121" t="s">
         <v>48</v>
       </c>
+      <c r="O121" t="s">
+        <v>267</v>
+      </c>
       <c r="P121" t="s">
         <v>82</v>
       </c>
@@ -15549,11 +15546,8 @@
       <c r="AM121" t="s">
         <v>57</v>
       </c>
-      <c r="AQ121" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>203</v>
       </c>
@@ -15596,6 +15590,9 @@
       <c r="N122" t="s">
         <v>48</v>
       </c>
+      <c r="O122" t="s">
+        <v>268</v>
+      </c>
       <c r="P122" t="s">
         <v>82</v>
       </c>
@@ -15659,11 +15656,8 @@
       <c r="AM122" t="s">
         <v>42</v>
       </c>
-      <c r="AQ122" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>203</v>
       </c>
@@ -15706,6 +15700,9 @@
       <c r="N123" t="s">
         <v>48</v>
       </c>
+      <c r="O123" t="s">
+        <v>268</v>
+      </c>
       <c r="P123" t="s">
         <v>82</v>
       </c>
@@ -15769,11 +15766,8 @@
       <c r="AM123" t="s">
         <v>57</v>
       </c>
-      <c r="AQ123" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>203</v>
       </c>
@@ -15816,6 +15810,9 @@
       <c r="N124" t="s">
         <v>48</v>
       </c>
+      <c r="O124" t="s">
+        <v>268</v>
+      </c>
       <c r="P124" t="s">
         <v>82</v>
       </c>
@@ -15879,11 +15876,8 @@
       <c r="AM124" t="s">
         <v>57</v>
       </c>
-      <c r="AQ124" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>203</v>
       </c>
@@ -15926,6 +15920,9 @@
       <c r="N125" t="s">
         <v>48</v>
       </c>
+      <c r="O125" t="s">
+        <v>268</v>
+      </c>
       <c r="P125" t="s">
         <v>82</v>
       </c>
@@ -15989,11 +15986,8 @@
       <c r="AM125" t="s">
         <v>89</v>
       </c>
-      <c r="AQ125" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>203</v>
       </c>
@@ -16036,6 +16030,9 @@
       <c r="N126" t="s">
         <v>48</v>
       </c>
+      <c r="O126" t="s">
+        <v>269</v>
+      </c>
       <c r="P126" t="s">
         <v>82</v>
       </c>
@@ -16099,11 +16096,8 @@
       <c r="AM126" t="s">
         <v>42</v>
       </c>
-      <c r="AQ126" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>203</v>
       </c>
@@ -16146,6 +16140,9 @@
       <c r="N127" t="s">
         <v>48</v>
       </c>
+      <c r="O127" t="s">
+        <v>270</v>
+      </c>
       <c r="P127" t="s">
         <v>82</v>
       </c>
@@ -16209,11 +16206,8 @@
       <c r="AM127" t="s">
         <v>57</v>
       </c>
-      <c r="AQ127" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>203</v>
       </c>
@@ -16256,6 +16250,9 @@
       <c r="N128" t="s">
         <v>48</v>
       </c>
+      <c r="O128" t="s">
+        <v>271</v>
+      </c>
       <c r="P128" t="s">
         <v>82</v>
       </c>
@@ -16319,11 +16316,8 @@
       <c r="AM128" t="s">
         <v>57</v>
       </c>
-      <c r="AQ128" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>203</v>
       </c>
@@ -16366,6 +16360,9 @@
       <c r="N129" t="s">
         <v>48</v>
       </c>
+      <c r="O129" t="s">
+        <v>272</v>
+      </c>
       <c r="P129" t="s">
         <v>82</v>
       </c>
@@ -16429,11 +16426,8 @@
       <c r="AM129" t="s">
         <v>89</v>
       </c>
-      <c r="AQ129" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>203</v>
       </c>
@@ -16540,7 +16534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>219</v>
       </c>
@@ -16580,6 +16574,9 @@
       <c r="N131" t="s">
         <v>48</v>
       </c>
+      <c r="O131" t="s">
+        <v>273</v>
+      </c>
       <c r="P131" t="s">
         <v>46</v>
       </c>
@@ -16652,11 +16649,8 @@
       <c r="AM131" t="s">
         <v>42</v>
       </c>
-      <c r="AQ131" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>219</v>
       </c>
@@ -16699,6 +16693,9 @@
       <c r="N132" t="s">
         <v>48</v>
       </c>
+      <c r="O132" t="s">
+        <v>273</v>
+      </c>
       <c r="P132" t="s">
         <v>60</v>
       </c>
@@ -16771,11 +16768,8 @@
       <c r="AM132" t="s">
         <v>57</v>
       </c>
-      <c r="AQ132" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>219</v>
       </c>
@@ -16818,6 +16812,9 @@
       <c r="N133" t="s">
         <v>48</v>
       </c>
+      <c r="O133" t="s">
+        <v>273</v>
+      </c>
       <c r="P133" t="s">
         <v>60</v>
       </c>
@@ -16890,11 +16887,8 @@
       <c r="AM133" t="s">
         <v>57</v>
       </c>
-      <c r="AQ133" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>219</v>
       </c>
@@ -16934,6 +16928,9 @@
       <c r="N134" t="s">
         <v>48</v>
       </c>
+      <c r="O134" t="s">
+        <v>274</v>
+      </c>
       <c r="P134" t="s">
         <v>68</v>
       </c>
@@ -17006,11 +17003,8 @@
       <c r="AM134" t="s">
         <v>42</v>
       </c>
-      <c r="AQ134" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>219</v>
       </c>
@@ -17050,6 +17044,9 @@
       <c r="N135" t="s">
         <v>48</v>
       </c>
+      <c r="O135" t="s">
+        <v>275</v>
+      </c>
       <c r="P135" t="s">
         <v>71</v>
       </c>
@@ -17122,11 +17119,8 @@
       <c r="AM135" t="s">
         <v>42</v>
       </c>
-      <c r="AQ135" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>219</v>
       </c>
@@ -17169,6 +17163,9 @@
       <c r="N136" t="s">
         <v>48</v>
       </c>
+      <c r="O136" t="s">
+        <v>274</v>
+      </c>
       <c r="P136" t="s">
         <v>74</v>
       </c>
@@ -17241,11 +17238,8 @@
       <c r="AM136" t="s">
         <v>57</v>
       </c>
-      <c r="AQ136" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>219</v>
       </c>
@@ -17288,6 +17282,9 @@
       <c r="N137" t="s">
         <v>48</v>
       </c>
+      <c r="O137" t="s">
+        <v>275</v>
+      </c>
       <c r="P137" t="s">
         <v>77</v>
       </c>
@@ -17360,11 +17357,8 @@
       <c r="AM137" t="s">
         <v>57</v>
       </c>
-      <c r="AQ137" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>219</v>
       </c>
@@ -17407,6 +17401,9 @@
       <c r="N138" t="s">
         <v>48</v>
       </c>
+      <c r="O138" t="s">
+        <v>276</v>
+      </c>
       <c r="P138" t="s">
         <v>82</v>
       </c>
@@ -17470,11 +17467,8 @@
       <c r="AM138" t="s">
         <v>42</v>
       </c>
-      <c r="AQ138" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>219</v>
       </c>
@@ -17517,6 +17511,9 @@
       <c r="N139" t="s">
         <v>48</v>
       </c>
+      <c r="O139" t="s">
+        <v>276</v>
+      </c>
       <c r="P139" t="s">
         <v>82</v>
       </c>
@@ -17580,11 +17577,8 @@
       <c r="AM139" t="s">
         <v>57</v>
       </c>
-      <c r="AQ139" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>219</v>
       </c>
@@ -17627,6 +17621,9 @@
       <c r="N140" t="s">
         <v>48</v>
       </c>
+      <c r="O140" t="s">
+        <v>276</v>
+      </c>
       <c r="P140" t="s">
         <v>82</v>
       </c>
@@ -17690,11 +17687,8 @@
       <c r="AM140" t="s">
         <v>57</v>
       </c>
-      <c r="AQ140" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>219</v>
       </c>
@@ -17737,6 +17731,9 @@
       <c r="N141" t="s">
         <v>48</v>
       </c>
+      <c r="O141" t="s">
+        <v>276</v>
+      </c>
       <c r="P141" t="s">
         <v>82</v>
       </c>
@@ -17800,11 +17797,8 @@
       <c r="AM141" t="s">
         <v>89</v>
       </c>
-      <c r="AQ141" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>219</v>
       </c>
@@ -17847,6 +17841,9 @@
       <c r="N142" t="s">
         <v>48</v>
       </c>
+      <c r="O142" t="s">
+        <v>277</v>
+      </c>
       <c r="P142" t="s">
         <v>82</v>
       </c>
@@ -17910,11 +17907,8 @@
       <c r="AM142" t="s">
         <v>42</v>
       </c>
-      <c r="AQ142" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>219</v>
       </c>
@@ -17957,6 +17951,9 @@
       <c r="N143" t="s">
         <v>48</v>
       </c>
+      <c r="O143" t="s">
+        <v>277</v>
+      </c>
       <c r="P143" t="s">
         <v>82</v>
       </c>
@@ -18020,11 +18017,8 @@
       <c r="AM143" t="s">
         <v>57</v>
       </c>
-      <c r="AQ143" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>219</v>
       </c>
@@ -18067,6 +18061,9 @@
       <c r="N144" t="s">
         <v>48</v>
       </c>
+      <c r="O144" t="s">
+        <v>277</v>
+      </c>
       <c r="P144" t="s">
         <v>82</v>
       </c>
@@ -18130,11 +18127,8 @@
       <c r="AM144" t="s">
         <v>57</v>
       </c>
-      <c r="AQ144" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>219</v>
       </c>
@@ -18177,6 +18171,9 @@
       <c r="N145" t="s">
         <v>48</v>
       </c>
+      <c r="O145" t="s">
+        <v>277</v>
+      </c>
       <c r="P145" t="s">
         <v>82</v>
       </c>
@@ -18240,11 +18237,8 @@
       <c r="AM145" t="s">
         <v>89</v>
       </c>
-      <c r="AQ145" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>219</v>
       </c>
@@ -18287,6 +18281,9 @@
       <c r="N146" t="s">
         <v>48</v>
       </c>
+      <c r="O146" t="s">
+        <v>278</v>
+      </c>
       <c r="P146" t="s">
         <v>82</v>
       </c>
@@ -18350,11 +18347,8 @@
       <c r="AM146" t="s">
         <v>42</v>
       </c>
-      <c r="AQ146" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>219</v>
       </c>
@@ -18397,6 +18391,9 @@
       <c r="N147" t="s">
         <v>48</v>
       </c>
+      <c r="O147" t="s">
+        <v>278</v>
+      </c>
       <c r="P147" t="s">
         <v>82</v>
       </c>
@@ -18460,11 +18457,8 @@
       <c r="AM147" t="s">
         <v>57</v>
       </c>
-      <c r="AQ147" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>219</v>
       </c>
@@ -18507,6 +18501,9 @@
       <c r="N148" t="s">
         <v>48</v>
       </c>
+      <c r="O148" t="s">
+        <v>278</v>
+      </c>
       <c r="P148" t="s">
         <v>82</v>
       </c>
@@ -18570,11 +18567,8 @@
       <c r="AM148" t="s">
         <v>57</v>
       </c>
-      <c r="AQ148" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>219</v>
       </c>
@@ -18617,6 +18611,9 @@
       <c r="N149" t="s">
         <v>48</v>
       </c>
+      <c r="O149" t="s">
+        <v>278</v>
+      </c>
       <c r="P149" t="s">
         <v>82</v>
       </c>
@@ -18680,11 +18677,8 @@
       <c r="AM149" t="s">
         <v>89</v>
       </c>
-      <c r="AQ149" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>219</v>
       </c>
@@ -18727,6 +18721,9 @@
       <c r="N150" t="s">
         <v>48</v>
       </c>
+      <c r="O150" t="s">
+        <v>279</v>
+      </c>
       <c r="P150" t="s">
         <v>82</v>
       </c>
@@ -18790,11 +18787,8 @@
       <c r="AM150" t="s">
         <v>42</v>
       </c>
-      <c r="AQ150" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>219</v>
       </c>
@@ -18837,6 +18831,9 @@
       <c r="N151" t="s">
         <v>48</v>
       </c>
+      <c r="O151" t="s">
+        <v>279</v>
+      </c>
       <c r="P151" t="s">
         <v>82</v>
       </c>
@@ -18900,11 +18897,8 @@
       <c r="AM151" t="s">
         <v>57</v>
       </c>
-      <c r="AQ151" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>219</v>
       </c>
@@ -18947,6 +18941,9 @@
       <c r="N152" t="s">
         <v>48</v>
       </c>
+      <c r="O152" t="s">
+        <v>279</v>
+      </c>
       <c r="P152" t="s">
         <v>82</v>
       </c>
@@ -19010,11 +19007,8 @@
       <c r="AM152" t="s">
         <v>57</v>
       </c>
-      <c r="AQ152" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>219</v>
       </c>
@@ -19057,6 +19051,9 @@
       <c r="N153" t="s">
         <v>48</v>
       </c>
+      <c r="O153" t="s">
+        <v>279</v>
+      </c>
       <c r="P153" t="s">
         <v>82</v>
       </c>
@@ -19120,11 +19117,8 @@
       <c r="AM153" t="s">
         <v>89</v>
       </c>
-      <c r="AQ153" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>219</v>
       </c>
@@ -19167,6 +19161,9 @@
       <c r="N154" t="s">
         <v>48</v>
       </c>
+      <c r="O154" t="s">
+        <v>280</v>
+      </c>
       <c r="P154" t="s">
         <v>82</v>
       </c>
@@ -19230,11 +19227,8 @@
       <c r="AM154" t="s">
         <v>42</v>
       </c>
-      <c r="AQ154" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>219</v>
       </c>
@@ -19277,6 +19271,9 @@
       <c r="N155" t="s">
         <v>48</v>
       </c>
+      <c r="O155" t="s">
+        <v>280</v>
+      </c>
       <c r="P155" t="s">
         <v>82</v>
       </c>
@@ -19340,11 +19337,8 @@
       <c r="AM155" t="s">
         <v>57</v>
       </c>
-      <c r="AQ155" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>219</v>
       </c>
@@ -19387,6 +19381,9 @@
       <c r="N156" t="s">
         <v>48</v>
       </c>
+      <c r="O156" t="s">
+        <v>280</v>
+      </c>
       <c r="P156" t="s">
         <v>82</v>
       </c>
@@ -19450,11 +19447,8 @@
       <c r="AM156" t="s">
         <v>57</v>
       </c>
-      <c r="AQ156" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>219</v>
       </c>
@@ -19497,6 +19491,9 @@
       <c r="N157" t="s">
         <v>48</v>
       </c>
+      <c r="O157" t="s">
+        <v>280</v>
+      </c>
       <c r="P157" t="s">
         <v>82</v>
       </c>
@@ -19560,11 +19557,8 @@
       <c r="AM157" t="s">
         <v>89</v>
       </c>
-      <c r="AQ157" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>219</v>
       </c>
@@ -19671,7 +19665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>219</v>
       </c>
@@ -19778,7 +19772,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>219</v>
       </c>
@@ -19885,7 +19879,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>219</v>
       </c>
@@ -19992,7 +19986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>219</v>
       </c>
@@ -20035,6 +20029,9 @@
       <c r="N162" t="s">
         <v>48</v>
       </c>
+      <c r="O162" t="s">
+        <v>281</v>
+      </c>
       <c r="P162" t="s">
         <v>82</v>
       </c>
@@ -20098,11 +20095,8 @@
       <c r="AM162" t="s">
         <v>42</v>
       </c>
-      <c r="AQ162" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>219</v>
       </c>
@@ -20145,6 +20139,9 @@
       <c r="N163" t="s">
         <v>48</v>
       </c>
+      <c r="O163" t="s">
+        <v>281</v>
+      </c>
       <c r="P163" t="s">
         <v>82</v>
       </c>
@@ -20208,11 +20205,8 @@
       <c r="AM163" t="s">
         <v>57</v>
       </c>
-      <c r="AQ163" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>219</v>
       </c>
@@ -20255,6 +20249,9 @@
       <c r="N164" t="s">
         <v>48</v>
       </c>
+      <c r="O164" t="s">
+        <v>281</v>
+      </c>
       <c r="P164" t="s">
         <v>82</v>
       </c>
@@ -20318,11 +20315,8 @@
       <c r="AM164" t="s">
         <v>57</v>
       </c>
-      <c r="AQ164" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>219</v>
       </c>
@@ -20365,6 +20359,9 @@
       <c r="N165" t="s">
         <v>48</v>
       </c>
+      <c r="O165" t="s">
+        <v>282</v>
+      </c>
       <c r="P165" t="s">
         <v>82</v>
       </c>
@@ -20428,11 +20425,8 @@
       <c r="AM165" t="s">
         <v>42</v>
       </c>
-      <c r="AQ165" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>219</v>
       </c>
@@ -20475,6 +20469,9 @@
       <c r="N166" t="s">
         <v>48</v>
       </c>
+      <c r="O166" t="s">
+        <v>282</v>
+      </c>
       <c r="P166" t="s">
         <v>82</v>
       </c>
@@ -20538,11 +20535,8 @@
       <c r="AM166" t="s">
         <v>57</v>
       </c>
-      <c r="AQ166" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>219</v>
       </c>
@@ -20585,6 +20579,9 @@
       <c r="N167" t="s">
         <v>48</v>
       </c>
+      <c r="O167" t="s">
+        <v>282</v>
+      </c>
       <c r="P167" t="s">
         <v>82</v>
       </c>
@@ -20648,11 +20645,8 @@
       <c r="AM167" t="s">
         <v>57</v>
       </c>
-      <c r="AQ167" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>219</v>
       </c>
@@ -20695,6 +20689,9 @@
       <c r="N168" t="s">
         <v>48</v>
       </c>
+      <c r="O168" t="s">
+        <v>282</v>
+      </c>
       <c r="P168" t="s">
         <v>82</v>
       </c>
@@ -20758,11 +20755,8 @@
       <c r="AM168" t="s">
         <v>89</v>
       </c>
-      <c r="AQ168" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>219</v>
       </c>
@@ -20805,6 +20799,9 @@
       <c r="N169" t="s">
         <v>48</v>
       </c>
+      <c r="O169" t="s">
+        <v>283</v>
+      </c>
       <c r="P169" t="s">
         <v>82</v>
       </c>
@@ -20868,11 +20865,8 @@
       <c r="AM169" t="s">
         <v>42</v>
       </c>
-      <c r="AQ169" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>219</v>
       </c>
@@ -20915,6 +20909,9 @@
       <c r="N170" t="s">
         <v>48</v>
       </c>
+      <c r="O170" t="s">
+        <v>283</v>
+      </c>
       <c r="P170" t="s">
         <v>82</v>
       </c>
@@ -20978,11 +20975,8 @@
       <c r="AM170" t="s">
         <v>57</v>
       </c>
-      <c r="AQ170" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>219</v>
       </c>
@@ -21025,6 +21019,9 @@
       <c r="N171" t="s">
         <v>48</v>
       </c>
+      <c r="O171" t="s">
+        <v>283</v>
+      </c>
       <c r="P171" t="s">
         <v>82</v>
       </c>
@@ -21088,11 +21085,8 @@
       <c r="AM171" t="s">
         <v>57</v>
       </c>
-      <c r="AQ171" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>219</v>
       </c>
@@ -21135,6 +21129,9 @@
       <c r="N172" t="s">
         <v>48</v>
       </c>
+      <c r="O172" t="s">
+        <v>283</v>
+      </c>
       <c r="P172" t="s">
         <v>82</v>
       </c>
@@ -21198,11 +21195,8 @@
       <c r="AM172" t="s">
         <v>89</v>
       </c>
-      <c r="AQ172" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>219</v>
       </c>
@@ -21309,7 +21303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>224</v>
       </c>
@@ -21349,6 +21343,9 @@
       <c r="N174" t="s">
         <v>48</v>
       </c>
+      <c r="O174" t="s">
+        <v>284</v>
+      </c>
       <c r="P174" t="s">
         <v>46</v>
       </c>
@@ -21421,11 +21418,8 @@
       <c r="AM174" t="s">
         <v>42</v>
       </c>
-      <c r="AQ174" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>224</v>
       </c>
@@ -21468,6 +21462,9 @@
       <c r="N175" t="s">
         <v>48</v>
       </c>
+      <c r="O175" t="s">
+        <v>284</v>
+      </c>
       <c r="P175" t="s">
         <v>60</v>
       </c>
@@ -21540,11 +21537,8 @@
       <c r="AM175" t="s">
         <v>57</v>
       </c>
-      <c r="AQ175" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
         <v>224</v>
       </c>
@@ -21587,6 +21581,9 @@
       <c r="N176" t="s">
         <v>48</v>
       </c>
+      <c r="O176" t="s">
+        <v>284</v>
+      </c>
       <c r="P176" t="s">
         <v>60</v>
       </c>
@@ -21659,11 +21656,8 @@
       <c r="AM176" t="s">
         <v>57</v>
       </c>
-      <c r="AQ176" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>224</v>
       </c>
@@ -21703,6 +21697,9 @@
       <c r="N177" t="s">
         <v>48</v>
       </c>
+      <c r="O177" t="s">
+        <v>285</v>
+      </c>
       <c r="P177" t="s">
         <v>68</v>
       </c>
@@ -21775,11 +21772,8 @@
       <c r="AM177" t="s">
         <v>42</v>
       </c>
-      <c r="AQ177" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>224</v>
       </c>
@@ -21819,6 +21813,9 @@
       <c r="N178" t="s">
         <v>48</v>
       </c>
+      <c r="O178" t="s">
+        <v>286</v>
+      </c>
       <c r="P178" t="s">
         <v>71</v>
       </c>
@@ -21891,11 +21888,8 @@
       <c r="AM178" t="s">
         <v>42</v>
       </c>
-      <c r="AQ178" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>224</v>
       </c>
@@ -21938,6 +21932,9 @@
       <c r="N179" t="s">
         <v>48</v>
       </c>
+      <c r="O179" t="s">
+        <v>285</v>
+      </c>
       <c r="P179" t="s">
         <v>74</v>
       </c>
@@ -22010,11 +22007,8 @@
       <c r="AM179" t="s">
         <v>57</v>
       </c>
-      <c r="AQ179" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>224</v>
       </c>
@@ -22057,6 +22051,9 @@
       <c r="N180" t="s">
         <v>48</v>
       </c>
+      <c r="O180" t="s">
+        <v>286</v>
+      </c>
       <c r="P180" t="s">
         <v>77</v>
       </c>
@@ -22129,11 +22126,8 @@
       <c r="AM180" t="s">
         <v>57</v>
       </c>
-      <c r="AQ180" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>224</v>
       </c>
@@ -22176,6 +22170,9 @@
       <c r="N181" t="s">
         <v>48</v>
       </c>
+      <c r="O181" t="s">
+        <v>287</v>
+      </c>
       <c r="P181" t="s">
         <v>82</v>
       </c>
@@ -22239,11 +22236,8 @@
       <c r="AM181" t="s">
         <v>42</v>
       </c>
-      <c r="AQ181" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
         <v>224</v>
       </c>
@@ -22286,6 +22280,9 @@
       <c r="N182" t="s">
         <v>48</v>
       </c>
+      <c r="O182" t="s">
+        <v>287</v>
+      </c>
       <c r="P182" t="s">
         <v>82</v>
       </c>
@@ -22349,11 +22346,8 @@
       <c r="AM182" t="s">
         <v>57</v>
       </c>
-      <c r="AQ182" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>224</v>
       </c>
@@ -22396,6 +22390,9 @@
       <c r="N183" t="s">
         <v>48</v>
       </c>
+      <c r="O183" t="s">
+        <v>287</v>
+      </c>
       <c r="P183" t="s">
         <v>82</v>
       </c>
@@ -22459,11 +22456,8 @@
       <c r="AM183" t="s">
         <v>57</v>
       </c>
-      <c r="AQ183" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
         <v>224</v>
       </c>
@@ -22506,6 +22500,9 @@
       <c r="N184" t="s">
         <v>48</v>
       </c>
+      <c r="O184" t="s">
+        <v>287</v>
+      </c>
       <c r="P184" t="s">
         <v>82</v>
       </c>
@@ -22569,11 +22566,8 @@
       <c r="AM184" t="s">
         <v>89</v>
       </c>
-      <c r="AQ184" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>224</v>
       </c>
@@ -22616,6 +22610,9 @@
       <c r="N185" t="s">
         <v>48</v>
       </c>
+      <c r="O185" t="s">
+        <v>288</v>
+      </c>
       <c r="P185" t="s">
         <v>82</v>
       </c>
@@ -22679,11 +22676,8 @@
       <c r="AM185" t="s">
         <v>42</v>
       </c>
-      <c r="AQ185" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>224</v>
       </c>
@@ -22726,6 +22720,9 @@
       <c r="N186" t="s">
         <v>48</v>
       </c>
+      <c r="O186" t="s">
+        <v>288</v>
+      </c>
       <c r="P186" t="s">
         <v>82</v>
       </c>
@@ -22789,11 +22786,8 @@
       <c r="AM186" t="s">
         <v>57</v>
       </c>
-      <c r="AQ186" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>224</v>
       </c>
@@ -22836,6 +22830,9 @@
       <c r="N187" t="s">
         <v>48</v>
       </c>
+      <c r="O187" t="s">
+        <v>288</v>
+      </c>
       <c r="P187" t="s">
         <v>82</v>
       </c>
@@ -22899,11 +22896,8 @@
       <c r="AM187" t="s">
         <v>57</v>
       </c>
-      <c r="AQ187" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
         <v>224</v>
       </c>
@@ -22946,6 +22940,9 @@
       <c r="N188" t="s">
         <v>48</v>
       </c>
+      <c r="O188" t="s">
+        <v>288</v>
+      </c>
       <c r="P188" t="s">
         <v>82</v>
       </c>
@@ -23009,11 +23006,8 @@
       <c r="AM188" t="s">
         <v>89</v>
       </c>
-      <c r="AQ188" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>224</v>
       </c>
@@ -23056,6 +23050,9 @@
       <c r="N189" t="s">
         <v>48</v>
       </c>
+      <c r="O189" t="s">
+        <v>289</v>
+      </c>
       <c r="P189" t="s">
         <v>82</v>
       </c>
@@ -23119,11 +23116,8 @@
       <c r="AM189" t="s">
         <v>42</v>
       </c>
-      <c r="AQ189" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
         <v>224</v>
       </c>
@@ -23166,6 +23160,9 @@
       <c r="N190" t="s">
         <v>48</v>
       </c>
+      <c r="O190" t="s">
+        <v>289</v>
+      </c>
       <c r="P190" t="s">
         <v>82</v>
       </c>
@@ -23229,11 +23226,8 @@
       <c r="AM190" t="s">
         <v>57</v>
       </c>
-      <c r="AQ190" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
         <v>224</v>
       </c>
@@ -23276,6 +23270,9 @@
       <c r="N191" t="s">
         <v>48</v>
       </c>
+      <c r="O191" t="s">
+        <v>289</v>
+      </c>
       <c r="P191" t="s">
         <v>82</v>
       </c>
@@ -23339,11 +23336,8 @@
       <c r="AM191" t="s">
         <v>57</v>
       </c>
-      <c r="AQ191" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
         <v>224</v>
       </c>
@@ -23386,6 +23380,9 @@
       <c r="N192" t="s">
         <v>48</v>
       </c>
+      <c r="O192" t="s">
+        <v>289</v>
+      </c>
       <c r="P192" t="s">
         <v>82</v>
       </c>
@@ -23449,11 +23446,8 @@
       <c r="AM192" t="s">
         <v>89</v>
       </c>
-      <c r="AQ192" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
         <v>224</v>
       </c>
@@ -23496,6 +23490,9 @@
       <c r="N193" t="s">
         <v>48</v>
       </c>
+      <c r="O193" t="s">
+        <v>290</v>
+      </c>
       <c r="P193" t="s">
         <v>82</v>
       </c>
@@ -23559,11 +23556,8 @@
       <c r="AM193" t="s">
         <v>42</v>
       </c>
-      <c r="AQ193" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
         <v>224</v>
       </c>
@@ -23606,6 +23600,9 @@
       <c r="N194" t="s">
         <v>48</v>
       </c>
+      <c r="O194" t="s">
+        <v>290</v>
+      </c>
       <c r="P194" t="s">
         <v>82</v>
       </c>
@@ -23669,11 +23666,8 @@
       <c r="AM194" t="s">
         <v>57</v>
       </c>
-      <c r="AQ194" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>224</v>
       </c>
@@ -23716,6 +23710,9 @@
       <c r="N195" t="s">
         <v>48</v>
       </c>
+      <c r="O195" t="s">
+        <v>290</v>
+      </c>
       <c r="P195" t="s">
         <v>82</v>
       </c>
@@ -23779,11 +23776,8 @@
       <c r="AM195" t="s">
         <v>57</v>
       </c>
-      <c r="AQ195" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>224</v>
       </c>
@@ -23826,6 +23820,9 @@
       <c r="N196" t="s">
         <v>48</v>
       </c>
+      <c r="O196" t="s">
+        <v>290</v>
+      </c>
       <c r="P196" t="s">
         <v>82</v>
       </c>
@@ -23889,11 +23886,8 @@
       <c r="AM196" t="s">
         <v>89</v>
       </c>
-      <c r="AQ196" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>224</v>
       </c>
@@ -23936,6 +23930,9 @@
       <c r="N197" t="s">
         <v>48</v>
       </c>
+      <c r="O197" t="s">
+        <v>291</v>
+      </c>
       <c r="P197" t="s">
         <v>82</v>
       </c>
@@ -23999,11 +23996,8 @@
       <c r="AM197" t="s">
         <v>42</v>
       </c>
-      <c r="AQ197" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>224</v>
       </c>
@@ -24046,6 +24040,9 @@
       <c r="N198" t="s">
         <v>48</v>
       </c>
+      <c r="O198" t="s">
+        <v>291</v>
+      </c>
       <c r="P198" t="s">
         <v>82</v>
       </c>
@@ -24109,11 +24106,8 @@
       <c r="AM198" t="s">
         <v>57</v>
       </c>
-      <c r="AQ198" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>224</v>
       </c>
@@ -24156,6 +24150,9 @@
       <c r="N199" t="s">
         <v>48</v>
       </c>
+      <c r="O199" t="s">
+        <v>291</v>
+      </c>
       <c r="P199" t="s">
         <v>82</v>
       </c>
@@ -24219,11 +24216,8 @@
       <c r="AM199" t="s">
         <v>57</v>
       </c>
-      <c r="AQ199" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>224</v>
       </c>
@@ -24266,6 +24260,9 @@
       <c r="N200" t="s">
         <v>48</v>
       </c>
+      <c r="O200" t="s">
+        <v>291</v>
+      </c>
       <c r="P200" t="s">
         <v>82</v>
       </c>
@@ -24329,11 +24326,8 @@
       <c r="AM200" t="s">
         <v>89</v>
       </c>
-      <c r="AQ200" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>224</v>
       </c>
@@ -24376,6 +24370,9 @@
       <c r="N201" t="s">
         <v>48</v>
       </c>
+      <c r="O201" t="s">
+        <v>292</v>
+      </c>
       <c r="P201" t="s">
         <v>82</v>
       </c>
@@ -24439,11 +24436,8 @@
       <c r="AM201" t="s">
         <v>42</v>
       </c>
-      <c r="AQ201" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
         <v>224</v>
       </c>
@@ -24486,6 +24480,9 @@
       <c r="N202" t="s">
         <v>48</v>
       </c>
+      <c r="O202" t="s">
+        <v>292</v>
+      </c>
       <c r="P202" t="s">
         <v>82</v>
       </c>
@@ -24549,11 +24546,8 @@
       <c r="AM202" t="s">
         <v>57</v>
       </c>
-      <c r="AQ202" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>224</v>
       </c>
@@ -24596,6 +24590,9 @@
       <c r="N203" t="s">
         <v>48</v>
       </c>
+      <c r="O203" t="s">
+        <v>292</v>
+      </c>
       <c r="P203" t="s">
         <v>82</v>
       </c>
@@ -24659,11 +24656,8 @@
       <c r="AM203" t="s">
         <v>57</v>
       </c>
-      <c r="AQ203" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
         <v>224</v>
       </c>
@@ -24706,6 +24700,9 @@
       <c r="N204" t="s">
         <v>48</v>
       </c>
+      <c r="O204" t="s">
+        <v>292</v>
+      </c>
       <c r="P204" t="s">
         <v>82</v>
       </c>
@@ -24769,11 +24766,8 @@
       <c r="AM204" t="s">
         <v>89</v>
       </c>
-      <c r="AQ204" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
         <v>224</v>
       </c>
@@ -24816,6 +24810,9 @@
       <c r="N205" t="s">
         <v>48</v>
       </c>
+      <c r="O205" t="s">
+        <v>293</v>
+      </c>
       <c r="P205" t="s">
         <v>82</v>
       </c>
@@ -24879,11 +24876,8 @@
       <c r="AM205" t="s">
         <v>42</v>
       </c>
-      <c r="AQ205" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
         <v>224</v>
       </c>
@@ -24926,6 +24920,9 @@
       <c r="N206" t="s">
         <v>48</v>
       </c>
+      <c r="O206" t="s">
+        <v>293</v>
+      </c>
       <c r="P206" t="s">
         <v>82</v>
       </c>
@@ -24989,11 +24986,8 @@
       <c r="AM206" t="s">
         <v>57</v>
       </c>
-      <c r="AQ206" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>224</v>
       </c>
@@ -25036,6 +25030,9 @@
       <c r="N207" t="s">
         <v>48</v>
       </c>
+      <c r="O207" t="s">
+        <v>293</v>
+      </c>
       <c r="P207" t="s">
         <v>82</v>
       </c>
@@ -25099,11 +25096,8 @@
       <c r="AM207" t="s">
         <v>57</v>
       </c>
-      <c r="AQ207" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>224</v>
       </c>
@@ -25146,6 +25140,9 @@
       <c r="N208" t="s">
         <v>48</v>
       </c>
+      <c r="O208" t="s">
+        <v>294</v>
+      </c>
       <c r="P208" t="s">
         <v>82</v>
       </c>
@@ -25209,11 +25206,8 @@
       <c r="AM208" t="s">
         <v>42</v>
       </c>
-      <c r="AQ208" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>224</v>
       </c>
@@ -25256,6 +25250,9 @@
       <c r="N209" t="s">
         <v>48</v>
       </c>
+      <c r="O209" t="s">
+        <v>294</v>
+      </c>
       <c r="P209" t="s">
         <v>82</v>
       </c>
@@ -25319,11 +25316,8 @@
       <c r="AM209" t="s">
         <v>57</v>
       </c>
-      <c r="AQ209" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
         <v>224</v>
       </c>
@@ -25366,6 +25360,9 @@
       <c r="N210" t="s">
         <v>48</v>
       </c>
+      <c r="O210" t="s">
+        <v>294</v>
+      </c>
       <c r="P210" t="s">
         <v>82</v>
       </c>
@@ -25429,11 +25426,8 @@
       <c r="AM210" t="s">
         <v>57</v>
       </c>
-      <c r="AQ210" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>224</v>
       </c>
@@ -25476,6 +25470,9 @@
       <c r="N211" t="s">
         <v>48</v>
       </c>
+      <c r="O211" t="s">
+        <v>294</v>
+      </c>
       <c r="P211" t="s">
         <v>82</v>
       </c>
@@ -25539,11 +25536,8 @@
       <c r="AM211" t="s">
         <v>89</v>
       </c>
-      <c r="AQ211" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
         <v>224</v>
       </c>
@@ -25586,6 +25580,9 @@
       <c r="N212" t="s">
         <v>48</v>
       </c>
+      <c r="O212" t="s">
+        <v>295</v>
+      </c>
       <c r="P212" t="s">
         <v>82</v>
       </c>
@@ -25649,11 +25646,8 @@
       <c r="AM212" t="s">
         <v>42</v>
       </c>
-      <c r="AQ212" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>224</v>
       </c>
@@ -25696,6 +25690,9 @@
       <c r="N213" s="31" t="s">
         <v>48</v>
       </c>
+      <c r="O213" t="s">
+        <v>295</v>
+      </c>
       <c r="P213" t="s">
         <v>82</v>
       </c>
@@ -25759,11 +25756,8 @@
       <c r="AM213" t="s">
         <v>57</v>
       </c>
-      <c r="AQ213" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>224</v>
       </c>
@@ -25806,6 +25800,9 @@
       <c r="N214" t="s">
         <v>48</v>
       </c>
+      <c r="O214" t="s">
+        <v>295</v>
+      </c>
       <c r="P214" t="s">
         <v>82</v>
       </c>
@@ -25869,38 +25866,35 @@
       <c r="AM214" t="s">
         <v>57</v>
       </c>
-      <c r="AQ214" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A217" s="9"/>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A218" s="9"/>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A221" s="9"/>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A222" s="9"/>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
@@ -28995,22 +28989,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -29423,10 +29417,10 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -29435,28 +29429,28 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>20</v>
@@ -29474,19 +29468,19 @@
         <v>21</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -29512,7 +29506,7 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -29521,13 +29515,13 @@
         <v>82</v>
       </c>
       <c r="K2" t="s">
+        <v>315</v>
+      </c>
+      <c r="L2" t="s">
         <v>316</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>317</v>
-      </c>
-      <c r="M2" t="s">
-        <v>318</v>
       </c>
       <c r="N2" t="s">
         <v>49</v>
@@ -29539,22 +29533,22 @@
         <v>50</v>
       </c>
       <c r="Q2" t="s">
+        <v>318</v>
+      </c>
+      <c r="R2" t="s">
         <v>319</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
         <v>320</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/data/examples/dataset_entrenamiento_ml_vf.xlsx
+++ b/data/examples/dataset_entrenamiento_ml_vf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ceplan\03. Orden de Servicio\07. Entregable 07\Evaluador_Informes\data\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58DA618-C3D3-4BE4-8385-E92A5384D069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7BAB8D-EE8E-4C36-9113-B25BB9417C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F00190AA-7F86-40B3-A9F2-D52551F6B6B8}"/>
   </bookViews>
@@ -1991,7 +1991,7 @@
   <dimension ref="A1:AP1248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
